--- a/data/time_slot.xlsx
+++ b/data/time_slot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\code\xk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D62FD5-AC03-43E5-917E-081E63F1D02F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001438D9-D58E-4667-BDDE-37E019CF969F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600" xr2:uid="{9C986B92-5AE8-4FF9-9457-B430992EF497}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4AAEB1-C20E-4A0B-AD17-A70AEE9FE33C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
